--- a/medicine/Enfance/Julia_Pawlowicz/Julia_Pawlowicz.xlsx
+++ b/medicine/Enfance/Julia_Pawlowicz/Julia_Pawlowicz.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Julia Magdalena Pawlowicz, née en 1980[1] en Pologne, est une écrivaine et enseignante québécoise d'origine polonaise.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Julia Magdalena Pawlowicz, née en 1980 en Pologne, est une écrivaine et enseignante québécoise d'origine polonaise.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D’origine polonaise, elle a étudié la littérature à l’Université McGill, où elle a consacré son mémoire de M.A. soutenu en 2004 à Patrick Modiano[2] et enseigne aujourd’hui la littérature au Cégep Édouard-Montpetit (Campus de Longueuil). Elle a illustré et publié des romans pour la jeunesse, ainsi que des nouvelles dans Virages, Jet d’Encre, Art le Sabord et Mœbius[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D’origine polonaise, elle a étudié la littérature à l’Université McGill, où elle a consacré son mémoire de M.A. soutenu en 2004 à Patrick Modiano et enseigne aujourd’hui la littérature au Cégep Édouard-Montpetit (Campus de Longueuil). Elle a illustré et publié des romans pour la jeunesse, ainsi que des nouvelles dans Virages, Jet d’Encre, Art le Sabord et Mœbius.
 </t>
         </is>
       </c>
